--- a/src/test/resources/testData/incorrectLoginDetail.xlsx
+++ b/src/test/resources/testData/incorrectLoginDetail.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>Raj@yopmail.com</t>
-  </si>
-  <si>
-    <t>rohit@yopmail.com</t>
-  </si>
-  <si>
-    <t>dilip@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -435,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -464,26 +458,11 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
